--- a/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
+++ b/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
+++ b/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
+++ b/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -804,7 +804,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="9" t="n">
-        <v>38.5</v>
+        <v>76.307</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="16">
@@ -822,7 +822,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>50.1</v>
+        <v>99.298</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="16">
@@ -840,7 +840,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>60</v>
+        <v>118.919</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" s="16">
@@ -858,7 +858,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>96</v>
+        <v>190.27</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" s="16">
@@ -876,7 +876,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>120</v>
+        <v>237.838</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" s="16">
@@ -894,7 +894,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>150</v>
+        <v>297.297</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" s="16">
@@ -912,7 +912,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>167</v>
+        <v>330.991</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" s="16">
@@ -930,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>185</v>
+        <v>366.666</v>
       </c>
     </row>
     <row r="30">

--- a/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
+++ b/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
+++ b/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -804,7 +804,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="9" t="n">
-        <v>76.307</v>
+        <v>38.5</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="16">
@@ -822,7 +822,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>99.298</v>
+        <v>50.1</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="16">
@@ -840,7 +840,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>118.919</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" s="16">
@@ -858,7 +858,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>190.27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" s="16">
@@ -876,7 +876,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>237.838</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" s="16">
@@ -894,7 +894,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>297.297</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" s="16">
@@ -912,7 +912,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>330.991</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" s="16">
@@ -930,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>366.666</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">

--- a/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
+++ b/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
+++ b/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
+++ b/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">

--- a/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
+++ b/server/LISTAS/mi/PLANCHUELA DISMAY.xlsx
@@ -719,7 +719,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="15" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
     </row>
     <row r="7" ht="22.5" customHeight="1" s="16">
@@ -804,7 +804,7 @@
         <v>100</v>
       </c>
       <c r="D14" s="9" t="n">
-        <v>38.5</v>
+        <v>83.175</v>
       </c>
     </row>
     <row r="15" ht="22.5" customHeight="1" s="16">
@@ -822,7 +822,7 @@
         <v>50</v>
       </c>
       <c r="D15" s="10" t="n">
-        <v>50.1</v>
+        <v>108.235</v>
       </c>
     </row>
     <row r="16" ht="22.5" customHeight="1" s="16">
@@ -840,7 +840,7 @@
         <v>50</v>
       </c>
       <c r="D16" s="10" t="n">
-        <v>60</v>
+        <v>129.622</v>
       </c>
     </row>
     <row r="17" ht="22.5" customHeight="1" s="16">
@@ -858,7 +858,7 @@
         <v>50</v>
       </c>
       <c r="D17" s="10" t="n">
-        <v>96</v>
+        <v>207.394</v>
       </c>
     </row>
     <row r="18" ht="22.5" customHeight="1" s="16">
@@ -876,7 +876,7 @@
         <v>50</v>
       </c>
       <c r="D18" s="10" t="n">
-        <v>120</v>
+        <v>259.243</v>
       </c>
     </row>
     <row r="19" ht="22.5" customHeight="1" s="16">
@@ -894,7 +894,7 @@
         <v>50</v>
       </c>
       <c r="D19" s="10" t="n">
-        <v>150</v>
+        <v>324.054</v>
       </c>
     </row>
     <row r="20" ht="22.5" customHeight="1" s="16">
@@ -912,7 +912,7 @@
         <v>50</v>
       </c>
       <c r="D20" s="10" t="n">
-        <v>167</v>
+        <v>360.78</v>
       </c>
     </row>
     <row r="21" ht="22.5" customHeight="1" s="16">
@@ -930,7 +930,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="10" t="n">
-        <v>185</v>
+        <v>399.666</v>
       </c>
     </row>
     <row r="30">
